--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Desktop\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -278,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99D6EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,6 +563,9 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1082,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1158,7 @@
       <c r="R5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="40" t="s">
         <v>55</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -1287,7 +1302,7 @@
         <v>920.6349206349206</v>
       </c>
       <c r="U7" s="32">
-        <f>(S6+B7-D7)*monthly_discount_rate</f>
+        <f t="shared" ref="U7:U42" si="8">(S6+B7-D7)*monthly_discount_rate</f>
         <v>0</v>
       </c>
       <c r="V7" s="34">
@@ -1305,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" ref="B8:D42" si="8">IF(MOD(A8-1,12)=0,initial_premium+ premium_inflation*INT((A8-1)/12),0)</f>
+        <f t="shared" ref="B8:D42" si="9">IF(MOD(A8-1,12)=0,initial_premium+ premium_inflation*INT((A8-1)/12),0)</f>
         <v>0</v>
       </c>
       <c r="C8" s="12">
@@ -1313,11 +1328,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" ref="E8:E42" si="9">B8-C8-D8</f>
+        <f t="shared" ref="E8:E42" si="10">B8-C8-D8</f>
         <v>-66.666666666666671</v>
       </c>
       <c r="G8" s="30">
@@ -1360,25 +1375,25 @@
         <v>691.26984126984132</v>
       </c>
       <c r="T8" s="32">
-        <f t="shared" ref="T8:T42" si="10">S8-S7</f>
+        <f t="shared" ref="T8:T42" si="11">S8-S7</f>
         <v>-79.365079365079282</v>
       </c>
       <c r="U8" s="32">
-        <f>(S7+B8-D8)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V8" s="34">
-        <f t="shared" ref="V8:V42" si="11">E8+U8-T8</f>
+        <f t="shared" ref="V8:V42" si="12">E8+U8-T8</f>
         <v>12.698412698412611</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A42" si="12">1+A8</f>
+        <f t="shared" ref="A9:A42" si="13">1+A8</f>
         <v>3</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C9" s="12">
@@ -1386,11 +1401,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G9" s="30">
@@ -1433,25 +1448,25 @@
         <v>611.90476190476193</v>
       </c>
       <c r="T9" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079396</v>
       </c>
       <c r="U9" s="32">
-        <f>(S8+B9-D9)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V9" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C10" s="12">
@@ -1459,11 +1474,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G10" s="30">
@@ -1506,25 +1521,25 @@
         <v>532.53968253968253</v>
       </c>
       <c r="T10" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079396</v>
       </c>
       <c r="U10" s="32">
-        <f>(S9+B10-D10)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V10" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C11" s="12">
@@ -1532,11 +1547,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G11" s="30">
@@ -1579,25 +1594,25 @@
         <v>453.17460317460325</v>
       </c>
       <c r="T11" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079282</v>
       </c>
       <c r="U11" s="32">
-        <f>(S10+B11-D11)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V11" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412611</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C12" s="12">
@@ -1605,11 +1620,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G12" s="30">
@@ -1652,25 +1667,25 @@
         <v>373.8095238095238</v>
       </c>
       <c r="T12" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079453</v>
       </c>
       <c r="U12" s="32">
-        <f>(S11+B12-D12)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V12" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412781</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="B13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C13" s="12">
@@ -1678,11 +1693,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G13" s="30">
@@ -1725,25 +1740,25 @@
         <v>294.44444444444446</v>
       </c>
       <c r="T13" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079339</v>
       </c>
       <c r="U13" s="32">
-        <f>(S12+B13-D13)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V13" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412668</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C14" s="12">
@@ -1751,11 +1766,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G14" s="30">
@@ -1798,25 +1813,25 @@
         <v>215.07936507936506</v>
       </c>
       <c r="T14" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079396</v>
       </c>
       <c r="U14" s="32">
-        <f>(S13+B14-D14)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V14" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C15" s="12">
@@ -1824,11 +1839,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G15" s="30">
@@ -1871,25 +1886,25 @@
         <v>135.71428571428572</v>
       </c>
       <c r="T15" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079339</v>
       </c>
       <c r="U15" s="32">
-        <f>(S14+B15-D15)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V15" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412668</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C16" s="12">
@@ -1897,11 +1912,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G16" s="30">
@@ -1944,25 +1959,25 @@
         <v>56.349206349206355</v>
       </c>
       <c r="T16" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079367</v>
       </c>
       <c r="U16" s="32">
-        <f>(S15+B16-D16)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V16" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412696</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C17" s="12">
@@ -1970,11 +1985,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G17" s="30">
@@ -2017,25 +2032,25 @@
         <v>-23.015873015873026</v>
       </c>
       <c r="T17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079382</v>
       </c>
       <c r="U17" s="32">
-        <f>(S16+B17-D17)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V17" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.69841269841271</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C18" s="12">
@@ -2043,11 +2058,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G18" s="30">
@@ -2090,25 +2105,25 @@
         <v>-102.38095238095238</v>
       </c>
       <c r="T18" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-79.365079365079353</v>
       </c>
       <c r="U18" s="32">
-        <f>(S17+B18-D18)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V18" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.698412698412682</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1050</v>
       </c>
       <c r="C19" s="12">
@@ -2116,11 +2131,11 @@
         <v>70</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" ref="D19:D42" si="13">renewal_expense *  (1+ renewal_expense_inflation)^(INT((A19-1)/12))/12</f>
+        <f t="shared" ref="D19:D42" si="14">renewal_expense *  (1+ renewal_expense_inflation)^(INT((A19-1)/12))/12</f>
         <v>4.375</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>975.625</v>
       </c>
       <c r="G19" s="30">
@@ -2163,25 +2178,25 @@
         <v>864.28571428571433</v>
       </c>
       <c r="T19" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>966.66666666666674</v>
       </c>
       <c r="U19" s="32">
-        <f>(S18+B19-D19)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333332575</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C20" s="12">
@@ -2189,11 +2204,11 @@
         <v>70</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G20" s="30">
@@ -2236,25 +2251,25 @@
         <v>780.95238095238096</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333371</v>
       </c>
       <c r="U20" s="32">
-        <f>(S19+B20-D20)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V20" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C21" s="12">
@@ -2262,11 +2277,11 @@
         <v>70</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G21" s="30">
@@ -2309,25 +2324,25 @@
         <v>697.61904761904759</v>
       </c>
       <c r="T21" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333371</v>
       </c>
       <c r="U21" s="32">
-        <f>(S20+B21-D21)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V21" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C22" s="12">
@@ -2335,11 +2350,11 @@
         <v>70</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G22" s="30">
@@ -2382,25 +2397,25 @@
         <v>614.28571428571433</v>
       </c>
       <c r="T22" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333258</v>
       </c>
       <c r="U22" s="32">
-        <f>(S21+B22-D22)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V22" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333332575</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C23" s="12">
@@ -2408,11 +2423,11 @@
         <v>70</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G23" s="30">
@@ -2455,25 +2470,25 @@
         <v>530.95238095238096</v>
       </c>
       <c r="T23" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333371</v>
       </c>
       <c r="U23" s="32">
-        <f>(S22+B23-D23)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V23" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C24" s="12">
@@ -2481,11 +2496,11 @@
         <v>70</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G24" s="30">
@@ -2528,25 +2543,25 @@
         <v>447.61904761904759</v>
       </c>
       <c r="T24" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333371</v>
       </c>
       <c r="U24" s="32">
-        <f>(S23+B24-D24)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V24" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C25" s="12">
@@ -2554,11 +2569,11 @@
         <v>70</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G25" s="30">
@@ -2601,25 +2616,25 @@
         <v>364.28571428571428</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333314</v>
       </c>
       <c r="U25" s="32">
-        <f>(S24+B25-D25)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V25" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333144</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B26" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C26" s="12">
@@ -2627,11 +2642,11 @@
         <v>70</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G26" s="30">
@@ -2674,25 +2689,25 @@
         <v>280.95238095238096</v>
       </c>
       <c r="T26" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333314</v>
       </c>
       <c r="U26" s="32">
-        <f>(S25+B26-D26)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V26" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333144</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="B27" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C27" s="12">
@@ -2700,11 +2715,11 @@
         <v>70</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G27" s="30">
@@ -2747,25 +2762,25 @@
         <v>197.61904761904762</v>
       </c>
       <c r="T27" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333343</v>
       </c>
       <c r="U27" s="32">
-        <f>(S26+B27-D27)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V27" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="B28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C28" s="12">
@@ -2773,11 +2788,11 @@
         <v>70</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G28" s="30">
@@ -2820,25 +2835,25 @@
         <v>114.28571428571429</v>
       </c>
       <c r="T28" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="U28" s="32">
-        <f>(S27+B28-D28)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V28" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333286</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="B29" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C29" s="12">
@@ -2846,11 +2861,11 @@
         <v>70</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G29" s="30">
@@ -2893,25 +2908,25 @@
         <v>30.952380952380956</v>
       </c>
       <c r="T29" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333343</v>
       </c>
       <c r="U29" s="32">
-        <f>(S28+B29-D29)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V29" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="B30" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C30" s="12">
@@ -2919,11 +2934,11 @@
         <v>70</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.375</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G30" s="30">
@@ -2966,25 +2981,25 @@
         <v>-52.38095238095238</v>
       </c>
       <c r="T30" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333343</v>
       </c>
       <c r="U30" s="32">
-        <f>(S29+B30-D30)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V30" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="B31" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
       <c r="C31" s="12">
@@ -2992,11 +3007,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1022.0729166666667</v>
       </c>
       <c r="G31" s="30">
@@ -3039,25 +3054,25 @@
         <v>960.31746031746025</v>
       </c>
       <c r="T31" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1012.6984126984127</v>
       </c>
       <c r="U31" s="32">
-        <f>(S30+B31-D31)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V31" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682540892</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="B32" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C32" s="12">
@@ -3065,11 +3080,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G32" s="30">
@@ -3112,25 +3127,25 @@
         <v>873.01587301587313</v>
       </c>
       <c r="T32" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587119</v>
       </c>
       <c r="U32" s="32">
-        <f>(S31+B32-D32)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V32" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682537907</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="B33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C33" s="12">
@@ -3138,11 +3153,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G33" s="30">
@@ -3185,25 +3200,25 @@
         <v>785.71428571428567</v>
       </c>
       <c r="T33" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.30158730158746</v>
       </c>
       <c r="U33" s="32">
-        <f>(S32+B33-D33)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V33" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682541318</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="B34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C34" s="12">
@@ -3211,11 +3226,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G34" s="30">
@@ -3258,25 +3273,25 @@
         <v>698.41269841269832</v>
       </c>
       <c r="T34" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587347</v>
       </c>
       <c r="U34" s="32">
-        <f>(S33+B34-D34)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V34" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="B35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C35" s="12">
@@ -3284,11 +3299,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E35" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G35" s="30">
@@ -3331,25 +3346,25 @@
         <v>611.1111111111112</v>
       </c>
       <c r="T35" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587119</v>
       </c>
       <c r="U35" s="32">
-        <f>(S34+B35-D35)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V35" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682537907</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="B36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C36" s="12">
@@ -3357,11 +3372,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G36" s="30">
@@ -3404,25 +3419,25 @@
         <v>523.80952380952385</v>
       </c>
       <c r="T36" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587347</v>
       </c>
       <c r="U36" s="32">
-        <f>(S35+B36-D36)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V36" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="B37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C37" s="12">
@@ -3430,11 +3445,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G37" s="30">
@@ -3477,25 +3492,25 @@
         <v>436.50793650793656</v>
       </c>
       <c r="T37" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.30158730158729</v>
       </c>
       <c r="U37" s="32">
-        <f>(S36+B37-D37)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V37" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="B38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C38" s="12">
@@ -3503,11 +3518,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G38" s="30">
@@ -3550,25 +3565,25 @@
         <v>349.20634920634916</v>
       </c>
       <c r="T38" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587404</v>
       </c>
       <c r="U38" s="32">
-        <f>(S37+B38-D38)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V38" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682540749</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="B39" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C39" s="12">
@@ -3576,11 +3591,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G39" s="30">
@@ -3623,25 +3638,25 @@
         <v>261.90476190476193</v>
       </c>
       <c r="T39" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587233</v>
       </c>
       <c r="U39" s="32">
-        <f>(S38+B39-D39)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V39" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682539044</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="B40" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C40" s="12">
@@ -3649,11 +3664,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G40" s="30">
@@ -3696,25 +3711,25 @@
         <v>174.60317460317458</v>
       </c>
       <c r="T40" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.301587301587347</v>
       </c>
       <c r="U40" s="32">
-        <f>(S39+B40-D40)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V40" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C41" s="12">
@@ -3722,11 +3737,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G41" s="30">
@@ -3769,25 +3784,25 @@
         <v>87.30158730158729</v>
       </c>
       <c r="T41" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.30158730158729</v>
       </c>
       <c r="U41" s="32">
-        <f>(S40+B41-D41)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V41" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="B42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C42" s="12">
@@ -3795,11 +3810,11 @@
         <v>73.333333333333329</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.59375</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G42" s="30">
@@ -3842,15 +3857,15 @@
         <v>0</v>
       </c>
       <c r="T42" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-87.30158730158729</v>
       </c>
       <c r="U42" s="32">
-        <f>(S41+B42-D42)*monthly_discount_rate</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V42" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
@@ -3866,7 +3881,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,7 +5957,7 @@
   <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -1081,9 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1302,7 +1300,7 @@
         <v>920.6349206349206</v>
       </c>
       <c r="U7" s="32">
-        <f t="shared" ref="U7:U42" si="8">(S6+B7-D7)*monthly_discount_rate</f>
+        <f>(S6+B7-C7-D7)*monthly_discount_rate</f>
         <v>0</v>
       </c>
       <c r="V7" s="34">
@@ -1320,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" ref="B8:D42" si="9">IF(MOD(A8-1,12)=0,initial_premium+ premium_inflation*INT((A8-1)/12),0)</f>
+        <f t="shared" ref="B8:D42" si="8">IF(MOD(A8-1,12)=0,initial_premium+ premium_inflation*INT((A8-1)/12),0)</f>
         <v>0</v>
       </c>
       <c r="C8" s="12">
@@ -1328,11 +1326,11 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" ref="E8:E42" si="10">B8-C8-D8</f>
+        <f t="shared" ref="E8:E42" si="9">B8-C8-D8</f>
         <v>-66.666666666666671</v>
       </c>
       <c r="G8" s="30">
@@ -1375,37 +1373,37 @@
         <v>691.26984126984132</v>
       </c>
       <c r="T8" s="32">
-        <f t="shared" ref="T8:T42" si="11">S8-S7</f>
+        <f t="shared" ref="T8:T42" si="10">S8-S7</f>
         <v>-79.365079365079282</v>
       </c>
       <c r="U8" s="32">
-        <f t="shared" si="8"/>
+        <f>(S7+B8-C8-D8)*monthly_discount_rate</f>
         <v>0</v>
       </c>
       <c r="V8" s="34">
-        <f t="shared" ref="V8:V42" si="12">E8+U8-T8</f>
+        <f t="shared" ref="V8:V42" si="11">E8+U8-T8</f>
         <v>12.698412698412611</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A42" si="13">1+A8</f>
+        <f t="shared" ref="A9:A42" si="12">1+A8</f>
         <v>3</v>
       </c>
       <c r="B9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G9" s="30">
@@ -1448,37 +1446,37 @@
         <v>611.90476190476193</v>
       </c>
       <c r="T9" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079396</v>
+      </c>
+      <c r="U9" s="32">
+        <f>(S8+B9-C9-D9)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079396</v>
-      </c>
-      <c r="U9" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G10" s="30">
@@ -1521,37 +1519,37 @@
         <v>532.53968253968253</v>
       </c>
       <c r="T10" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079396</v>
+      </c>
+      <c r="U10" s="32">
+        <f>(S9+B10-C10-D10)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079396</v>
-      </c>
-      <c r="U10" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G11" s="30">
@@ -1594,37 +1592,37 @@
         <v>453.17460317460325</v>
       </c>
       <c r="T11" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079282</v>
+      </c>
+      <c r="U11" s="32">
+        <f>(S10+B11-C11-D11)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079282</v>
-      </c>
-      <c r="U11" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412611</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G12" s="30">
@@ -1667,37 +1665,37 @@
         <v>373.8095238095238</v>
       </c>
       <c r="T12" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079453</v>
+      </c>
+      <c r="U12" s="32">
+        <f>(S11+B12-C12-D12)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079453</v>
-      </c>
-      <c r="U12" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412781</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="B13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G13" s="30">
@@ -1740,37 +1738,37 @@
         <v>294.44444444444446</v>
       </c>
       <c r="T13" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079339</v>
+      </c>
+      <c r="U13" s="32">
+        <f>(S12+B13-C13-D13)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079339</v>
-      </c>
-      <c r="U13" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412668</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G14" s="30">
@@ -1813,37 +1811,37 @@
         <v>215.07936507936506</v>
       </c>
       <c r="T14" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079396</v>
+      </c>
+      <c r="U14" s="32">
+        <f>(S13+B14-C14-D14)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079396</v>
-      </c>
-      <c r="U14" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412724</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="B15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G15" s="30">
@@ -1886,37 +1884,37 @@
         <v>135.71428571428572</v>
       </c>
       <c r="T15" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079339</v>
+      </c>
+      <c r="U15" s="32">
+        <f>(S14+B15-C15-D15)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079339</v>
-      </c>
-      <c r="U15" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412668</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="B16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G16" s="30">
@@ -1959,37 +1957,37 @@
         <v>56.349206349206355</v>
       </c>
       <c r="T16" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079367</v>
+      </c>
+      <c r="U16" s="32">
+        <f>(S15+B16-C16-D16)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079367</v>
-      </c>
-      <c r="U16" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412696</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="B17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G17" s="30">
@@ -2032,37 +2030,37 @@
         <v>-23.015873015873026</v>
       </c>
       <c r="T17" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079382</v>
+      </c>
+      <c r="U17" s="32">
+        <f>(S16+B17-C17-D17)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079382</v>
-      </c>
-      <c r="U17" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="34">
-        <f t="shared" si="12"/>
         <v>12.69841269841271</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="B18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="10"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="G18" s="30">
@@ -2105,37 +2103,37 @@
         <v>-102.38095238095238</v>
       </c>
       <c r="T18" s="32">
+        <f t="shared" si="10"/>
+        <v>-79.365079365079353</v>
+      </c>
+      <c r="U18" s="32">
+        <f>(S17+B18-C18-D18)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="34">
         <f t="shared" si="11"/>
-        <v>-79.365079365079353</v>
-      </c>
-      <c r="U18" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="34">
-        <f t="shared" si="12"/>
         <v>12.698412698412682</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="B19" s="8">
+        <f t="shared" si="8"/>
+        <v>1050</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D42" si="13">renewal_expense *  (1+ renewal_expense_inflation)^(INT((A19-1)/12))/12</f>
+        <v>4.375</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="9"/>
-        <v>1050</v>
-      </c>
-      <c r="C19" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" ref="D19:D42" si="14">renewal_expense *  (1+ renewal_expense_inflation)^(INT((A19-1)/12))/12</f>
-        <v>4.375</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="10"/>
         <v>975.625</v>
       </c>
       <c r="G19" s="30">
@@ -2178,37 +2176,37 @@
         <v>864.28571428571433</v>
       </c>
       <c r="T19" s="32">
+        <f t="shared" si="10"/>
+        <v>966.66666666666674</v>
+      </c>
+      <c r="U19" s="32">
+        <f>(S18+B19-C19-D19)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="34">
         <f t="shared" si="11"/>
-        <v>966.66666666666674</v>
-      </c>
-      <c r="U19" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333332575</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G20" s="30">
@@ -2251,37 +2249,37 @@
         <v>780.95238095238096</v>
       </c>
       <c r="T20" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333371</v>
+      </c>
+      <c r="U20" s="32">
+        <f>(S19+B20-C20-D20)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333371</v>
-      </c>
-      <c r="U20" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E21" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G21" s="30">
@@ -2324,37 +2322,37 @@
         <v>697.61904761904759</v>
       </c>
       <c r="T21" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333371</v>
+      </c>
+      <c r="U21" s="32">
+        <f>(S20+B21-C21-D21)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333371</v>
-      </c>
-      <c r="U21" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E22" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G22" s="30">
@@ -2397,37 +2395,37 @@
         <v>614.28571428571433</v>
       </c>
       <c r="T22" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333258</v>
+      </c>
+      <c r="U22" s="32">
+        <f>(S21+B22-C22-D22)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333258</v>
-      </c>
-      <c r="U22" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333332575</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E23" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G23" s="30">
@@ -2470,37 +2468,37 @@
         <v>530.95238095238096</v>
       </c>
       <c r="T23" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333371</v>
+      </c>
+      <c r="U23" s="32">
+        <f>(S22+B23-C23-D23)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333371</v>
-      </c>
-      <c r="U23" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D24" s="12">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E24" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G24" s="30">
@@ -2543,37 +2541,37 @@
         <v>447.61904761904759</v>
       </c>
       <c r="T24" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333371</v>
+      </c>
+      <c r="U24" s="32">
+        <f>(S23+B24-C24-D24)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333371</v>
-      </c>
-      <c r="U24" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333712</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D25" s="12">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="B25" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E25" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G25" s="30">
@@ -2616,37 +2614,37 @@
         <v>364.28571428571428</v>
       </c>
       <c r="T25" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333314</v>
+      </c>
+      <c r="U25" s="32">
+        <f>(S24+B25-C25-D25)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333314</v>
-      </c>
-      <c r="U25" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333144</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E26" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G26" s="30">
@@ -2689,37 +2687,37 @@
         <v>280.95238095238096</v>
       </c>
       <c r="T26" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333314</v>
+      </c>
+      <c r="U26" s="32">
+        <f>(S25+B26-C26-D26)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333314</v>
-      </c>
-      <c r="U26" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333144</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="12">
         <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E27" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G27" s="30">
@@ -2762,37 +2760,37 @@
         <v>197.61904761904762</v>
       </c>
       <c r="T27" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333343</v>
+      </c>
+      <c r="U27" s="32">
+        <f>(S26+B27-C27-D27)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333343</v>
-      </c>
-      <c r="U27" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D28" s="12">
         <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="B28" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E28" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G28" s="30">
@@ -2835,37 +2833,37 @@
         <v>114.28571428571429</v>
       </c>
       <c r="T28" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333329</v>
+      </c>
+      <c r="U28" s="32">
+        <f>(S27+B28-C28-D28)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333329</v>
-      </c>
-      <c r="U28" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333286</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D29" s="12">
         <f t="shared" si="13"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E29" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G29" s="30">
@@ -2908,37 +2906,37 @@
         <v>30.952380952380956</v>
       </c>
       <c r="T29" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333343</v>
+      </c>
+      <c r="U29" s="32">
+        <f>(S28+B29-C29-D29)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333343</v>
-      </c>
-      <c r="U29" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D30" s="12">
         <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="8">
+        <v>4.375</v>
+      </c>
+      <c r="E30" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="14"/>
-        <v>4.375</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="10"/>
         <v>-74.375</v>
       </c>
       <c r="G30" s="30">
@@ -2981,37 +2979,37 @@
         <v>-52.38095238095238</v>
       </c>
       <c r="T30" s="32">
+        <f t="shared" si="10"/>
+        <v>-83.333333333333343</v>
+      </c>
+      <c r="U30" s="32">
+        <f>(S29+B30-C30-D30)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="34">
         <f t="shared" si="11"/>
-        <v>-83.333333333333343</v>
-      </c>
-      <c r="U30" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="34">
-        <f t="shared" si="12"/>
         <v>8.9583333333333428</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="8"/>
+        <v>1100</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D31" s="12">
         <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E31" s="12">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="C31" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="10"/>
         <v>1022.0729166666667</v>
       </c>
       <c r="G31" s="30">
@@ -3054,37 +3052,37 @@
         <v>960.31746031746025</v>
       </c>
       <c r="T31" s="32">
+        <f t="shared" si="10"/>
+        <v>1012.6984126984127</v>
+      </c>
+      <c r="U31" s="32">
+        <f>(S30+B31-C31-D31)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="34">
         <f t="shared" si="11"/>
-        <v>1012.6984126984127</v>
-      </c>
-      <c r="U31" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682540892</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D32" s="12">
         <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E32" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G32" s="30">
@@ -3127,37 +3125,37 @@
         <v>873.01587301587313</v>
       </c>
       <c r="T32" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587119</v>
+      </c>
+      <c r="U32" s="32">
+        <f>(S31+B32-C32-D32)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587119</v>
-      </c>
-      <c r="U32" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682537907</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D33" s="12">
         <f t="shared" si="13"/>
-        <v>27</v>
-      </c>
-      <c r="B33" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E33" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G33" s="30">
@@ -3200,37 +3198,37 @@
         <v>785.71428571428567</v>
       </c>
       <c r="T33" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.30158730158746</v>
+      </c>
+      <c r="U33" s="32">
+        <f>(S32+B33-C33-D33)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="34">
         <f t="shared" si="11"/>
-        <v>-87.30158730158746</v>
-      </c>
-      <c r="U33" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682541318</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D34" s="12">
         <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="B34" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E34" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G34" s="30">
@@ -3273,37 +3271,37 @@
         <v>698.41269841269832</v>
       </c>
       <c r="T34" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587347</v>
+      </c>
+      <c r="U34" s="32">
+        <f>(S33+B34-C34-D34)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587347</v>
-      </c>
-      <c r="U34" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D35" s="12">
         <f t="shared" si="13"/>
-        <v>29</v>
-      </c>
-      <c r="B35" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E35" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G35" s="30">
@@ -3346,37 +3344,37 @@
         <v>611.1111111111112</v>
       </c>
       <c r="T35" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587119</v>
+      </c>
+      <c r="U35" s="32">
+        <f>(S34+B35-C35-D35)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587119</v>
-      </c>
-      <c r="U35" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682537907</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D36" s="12">
         <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="B36" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E36" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G36" s="30">
@@ -3419,37 +3417,37 @@
         <v>523.80952380952385</v>
       </c>
       <c r="T36" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587347</v>
+      </c>
+      <c r="U36" s="32">
+        <f>(S35+B36-C36-D36)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587347</v>
-      </c>
-      <c r="U36" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D37" s="12">
         <f t="shared" si="13"/>
-        <v>31</v>
-      </c>
-      <c r="B37" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E37" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D37" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G37" s="30">
@@ -3492,37 +3490,37 @@
         <v>436.50793650793656</v>
       </c>
       <c r="T37" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.30158730158729</v>
+      </c>
+      <c r="U37" s="32">
+        <f>(S36+B37-C37-D37)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="34">
         <f t="shared" si="11"/>
-        <v>-87.30158730158729</v>
-      </c>
-      <c r="U37" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="B38" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E38" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D38" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E38" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G38" s="30">
@@ -3565,37 +3563,37 @@
         <v>349.20634920634916</v>
       </c>
       <c r="T38" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587404</v>
+      </c>
+      <c r="U38" s="32">
+        <f>(S37+B38-C38-D38)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587404</v>
-      </c>
-      <c r="U38" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682540749</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D39" s="12">
         <f t="shared" si="13"/>
-        <v>33</v>
-      </c>
-      <c r="B39" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E39" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D39" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G39" s="30">
@@ -3638,37 +3636,37 @@
         <v>261.90476190476193</v>
       </c>
       <c r="T39" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587233</v>
+      </c>
+      <c r="U39" s="32">
+        <f>(S38+B39-C39-D39)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587233</v>
-      </c>
-      <c r="U39" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682539044</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D40" s="12">
         <f t="shared" si="13"/>
-        <v>34</v>
-      </c>
-      <c r="B40" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E40" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D40" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E40" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G40" s="30">
@@ -3711,37 +3709,37 @@
         <v>174.60317460317458</v>
       </c>
       <c r="T40" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.301587301587347</v>
+      </c>
+      <c r="U40" s="32">
+        <f>(S39+B40-C40-D40)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="34">
         <f t="shared" si="11"/>
-        <v>-87.301587301587347</v>
-      </c>
-      <c r="U40" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682540181</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D41" s="12">
         <f t="shared" si="13"/>
-        <v>35</v>
-      </c>
-      <c r="B41" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E41" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D41" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E41" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G41" s="30">
@@ -3784,37 +3782,37 @@
         <v>87.30158730158729</v>
       </c>
       <c r="T41" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.30158730158729</v>
+      </c>
+      <c r="U41" s="32">
+        <f>(S40+B41-C41-D41)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="34">
         <f t="shared" si="11"/>
-        <v>-87.30158730158729</v>
-      </c>
-      <c r="U41" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="2"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D42" s="12">
         <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="B42" s="8">
+        <v>4.59375</v>
+      </c>
+      <c r="E42" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="12">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" si="14"/>
-        <v>4.59375</v>
-      </c>
-      <c r="E42" s="12">
-        <f t="shared" si="10"/>
         <v>-77.927083333333329</v>
       </c>
       <c r="G42" s="30">
@@ -3857,15 +3855,15 @@
         <v>0</v>
       </c>
       <c r="T42" s="32">
+        <f t="shared" si="10"/>
+        <v>-87.30158730158729</v>
+      </c>
+      <c r="U42" s="32">
+        <f>(S41+B42-C42-D42)*monthly_discount_rate</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="34">
         <f t="shared" si="11"/>
-        <v>-87.30158730158729</v>
-      </c>
-      <c r="U42" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="34">
-        <f t="shared" si="12"/>
         <v>9.3745039682539613</v>
       </c>
     </row>
@@ -3881,7 +3879,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,7 +5955,7 @@
   <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
